--- a/ConversionSystem/更新还需要的修改.xlsx
+++ b/ConversionSystem/更新还需要的修改.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>conversion数据处理有出现error错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>Update SO NO to rtrac按钮，AE有可能在AEO系统update过了SO，这样列表中的checkbox一直可选，update的时候是否需要给提示？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOQ更改逻辑，现在是限制总数，需要按size来限定。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +463,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,7 +518,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
